--- a/data/charts.xlsx
+++ b/data/charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron\College\CIS_5650\Project1-CUDA-Flocking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5B017-03B9-4F61-BAAA-955A231743AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8D288-F7EF-47D3-8F70-38F78B944114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="2676" windowWidth="36048" windowHeight="12876" activeTab="1" xr2:uid="{A7EAF083-E112-421A-A55A-345EE87A45CE}"/>
+    <workbookView xWindow="2016" yWindow="3024" windowWidth="36048" windowHeight="12876" activeTab="1" xr2:uid="{A7EAF083-E112-421A-A55A-345EE87A45CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Boids vs FPS" sheetId="1" r:id="rId1"/>
@@ -12125,7 +12125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10CC591-C8E3-4C3B-9580-64D39E55497F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
